--- a/UK_CoP_TitleLists/SAGE_Hybrid_scifreeimport.xlsx
+++ b/UK_CoP_TitleLists/SAGE_Hybrid_scifreeimport.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon.sharepoint.com/sites/ScholarlyCommunicationsManagement/Shared Documents/Open Access/OA Publisher Memberships/SciFree/Community of Practice/CoP journal lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="14_{19F2A114-AEE8-4268-B083-C8918D83EB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0472E72-EDF9-450E-99F2-C2B36AB744F1}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="14_{19F2A114-AEE8-4268-B083-C8918D83EB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272B187A-DE1E-4454-B9E0-9122BE674BF0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BE44926E-75A4-4EDC-A463-0127E7F3749D}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal List" sheetId="1" r:id="rId1"/>
     <sheet name="Journal Changes Notes" sheetId="3" r:id="rId2"/>
     <sheet name="Journal Changes Terms" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" iterate="1" iterateCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8802" uniqueCount="4353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8802" uniqueCount="4366">
   <si>
     <t>Journal Title</t>
   </si>
@@ -13097,6 +13097,45 @@
   </si>
   <si>
     <t>Open Access</t>
+  </si>
+  <si>
+    <t>Ultrasound</t>
+  </si>
+  <si>
+    <t>Tropical Doctor</t>
+  </si>
+  <si>
+    <t>Scottish Medical Journal</t>
+  </si>
+  <si>
+    <t>Post Reproductive Health</t>
+  </si>
+  <si>
+    <t>Obstetric Medicine</t>
+  </si>
+  <si>
+    <t>Journal of the Royal Society of Medicine</t>
+  </si>
+  <si>
+    <t>Journal of Telemedicine and Telecare</t>
+  </si>
+  <si>
+    <t>Journal of Patient Safety and Risk Management</t>
+  </si>
+  <si>
+    <t>Journal of Medical Screening</t>
+  </si>
+  <si>
+    <t>International Journal of STD &amp; AIDS</t>
+  </si>
+  <si>
+    <t>Health Services Management Research</t>
+  </si>
+  <si>
+    <t>Clinical Ethics</t>
+  </si>
+  <si>
+    <t>Acta Radiologica</t>
   </si>
 </sst>
 </file>
@@ -13420,14 +13459,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -14851,8 +14890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4A9487-D5B7-4CE1-99CD-1488FAF55674}">
   <dimension ref="A1:K1086"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F753" sqref="F753"/>
+    <sheetView tabSelected="1" topLeftCell="A1084" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H261" sqref="H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18277,7 +18316,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="28" t="s">
-        <v>68</v>
+        <v>4365</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>9</v>
@@ -18303,7 +18342,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="28" t="s">
-        <v>68</v>
+        <v>4364</v>
       </c>
       <c r="B133" s="28" t="s">
         <v>9</v>
@@ -18329,7 +18368,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="28" t="s">
-        <v>68</v>
+        <v>4363</v>
       </c>
       <c r="B134" s="28" t="s">
         <v>9</v>
@@ -18355,7 +18394,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="28" t="s">
-        <v>68</v>
+        <v>4362</v>
       </c>
       <c r="B135" s="28" t="s">
         <v>9</v>
@@ -18381,7 +18420,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="28" t="s">
-        <v>68</v>
+        <v>4361</v>
       </c>
       <c r="B136" s="28" t="s">
         <v>9</v>
@@ -18407,7 +18446,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="28" t="s">
-        <v>68</v>
+        <v>4360</v>
       </c>
       <c r="B137" s="28" t="s">
         <v>9</v>
@@ -18433,7 +18472,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="28" t="s">
-        <v>68</v>
+        <v>4359</v>
       </c>
       <c r="B138" s="28" t="s">
         <v>9</v>
@@ -18459,7 +18498,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="28" t="s">
-        <v>68</v>
+        <v>4358</v>
       </c>
       <c r="B139" s="28" t="s">
         <v>9</v>
@@ -18485,7 +18524,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="28" t="s">
-        <v>68</v>
+        <v>4357</v>
       </c>
       <c r="B140" s="28" t="s">
         <v>9</v>
@@ -18511,7 +18550,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="28" t="s">
-        <v>68</v>
+        <v>4356</v>
       </c>
       <c r="B141" s="28" t="s">
         <v>9</v>
@@ -18537,7 +18576,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="28" t="s">
-        <v>68</v>
+        <v>4355</v>
       </c>
       <c r="B142" s="28" t="s">
         <v>9</v>
@@ -18563,7 +18602,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="28" t="s">
-        <v>68</v>
+        <v>4354</v>
       </c>
       <c r="B143" s="28" t="s">
         <v>9</v>
@@ -18589,7 +18628,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="28" t="s">
-        <v>68</v>
+        <v>4353</v>
       </c>
       <c r="B144" s="28" t="s">
         <v>9</v>
@@ -43118,8 +43157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FC2B06-4BD0-4FEC-9578-53390E6CC2F6}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43138,30 +43177,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>4309</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
@@ -43228,7 +43267,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>2450</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -43260,7 +43299,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" s="23" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>3289</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -43292,7 +43331,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" s="23" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>3371</v>
       </c>
       <c r="B8" s="28" t="s">
@@ -43324,7 +43363,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>3604</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -43406,10 +43445,10 @@
         <v>14</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="33" t="s">
         <v>4326</v>
       </c>
-      <c r="J11" s="35" t="s">
+      <c r="J11" s="34" t="s">
         <v>4327</v>
       </c>
     </row>
@@ -43432,10 +43471,10 @@
         <v>14</v>
       </c>
       <c r="H12" s="28"/>
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="33" t="s">
         <v>4326</v>
       </c>
-      <c r="J12" s="35" t="s">
+      <c r="J12" s="34" t="s">
         <v>4327</v>
       </c>
     </row>
@@ -43458,10 +43497,10 @@
         <v>14</v>
       </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="34" t="s">
+      <c r="I13" s="33" t="s">
         <v>4326</v>
       </c>
-      <c r="J13" s="35" t="s">
+      <c r="J13" s="34" t="s">
         <v>4327</v>
       </c>
     </row>
